--- a/src/main/java/com/example/demo/helpers/templates/Example.xlsx
+++ b/src/main/java/com/example/demo/helpers/templates/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALAL-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80703EF-90D1-4ADA-A31B-65314F516B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FEBA0A-AC90-4AD6-9ECA-FC7D36AD7197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="1275" windowWidth="28800" windowHeight="6660" xr2:uid="{E7756BC6-5A20-4324-BF4A-7A7E9B795834}"/>
+    <workbookView xWindow="345" yWindow="6225" windowWidth="28800" windowHeight="8805" xr2:uid="{E7756BC6-5A20-4324-BF4A-7A7E9B795834}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="101">
   <si>
     <t>Наименование дисциплины, практики</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Теория вычислительных процессов</t>
   </si>
   <si>
-    <t>Котлинский С.В.</t>
-  </si>
-  <si>
     <t>Желтов С.А.</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>М.ПИН.РИС</t>
+  </si>
+  <si>
+    <t>Корнеев И.Н.</t>
   </si>
 </sst>
 </file>
@@ -1662,13 +1662,13 @@
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="141" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="90" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="91" t="s">
         <v>12</v>
@@ -1677,13 +1677,13 @@
         <v>18</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="92" t="s">
         <v>78</v>
       </c>
       <c r="H1" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="93" t="s">
         <v>17</v>
@@ -1716,13 +1716,13 @@
         <v>9</v>
       </c>
       <c r="S1" s="112" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="112" t="s">
+      <c r="U1" s="112" t="s">
         <v>95</v>
-      </c>
-      <c r="U1" s="112" t="s">
-        <v>96</v>
       </c>
       <c r="V1" s="113"/>
       <c r="W1" s="97"/>
@@ -1735,7 +1735,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>13</v>
@@ -1782,10 +1782,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="140" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>99</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>13</v>
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>13</v>
@@ -1839,7 +1839,9 @@
       <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="13">
         <v>23</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>13</v>
@@ -1925,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>13</v>
@@ -1933,7 +1935,9 @@
       <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="13">
         <v>23</v>
       </c>
@@ -1968,10 +1972,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>13</v>
@@ -1987,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="21">
         <v>2</v>
@@ -2017,7 +2021,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>13</v>
@@ -2025,7 +2029,9 @@
       <c r="E8" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="21">
         <v>23</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>13</v>
@@ -2073,7 +2079,9 @@
       <c r="E9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="21">
         <v>23</v>
       </c>
@@ -2113,7 +2121,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>13</v>
@@ -2121,7 +2129,9 @@
       <c r="E10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="21">
         <v>23</v>
       </c>
@@ -2159,7 +2169,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="123" t="s">
         <v>13</v>
@@ -2201,7 +2211,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>13</v>
@@ -2247,7 +2257,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>13</v>
@@ -2293,7 +2303,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>13</v>
@@ -2341,7 +2351,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>13</v>
@@ -2391,7 +2401,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>13</v>
@@ -2399,7 +2409,9 @@
       <c r="E16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="13">
         <v>32</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>13</v>
@@ -2483,7 +2495,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>13</v>
@@ -2531,7 +2543,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>13</v>
@@ -2577,7 +2589,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>13</v>
@@ -2625,7 +2637,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>13</v>
@@ -2671,13 +2683,13 @@
         <v>33</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21">
@@ -2717,7 +2729,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="123" t="s">
         <v>13</v>
@@ -2759,7 +2771,7 @@
         <v>35</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>13</v>
@@ -2809,7 +2821,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>13</v>
@@ -2855,7 +2867,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="49" t="s">
         <v>13</v>
@@ -2903,7 +2915,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="49" t="s">
         <v>13</v>
@@ -2949,7 +2961,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="49" t="s">
         <v>13</v>
@@ -2995,7 +3007,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="49" t="s">
         <v>13</v>
@@ -3043,7 +3055,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>13</v>
@@ -3091,7 +3103,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>13</v>
@@ -3137,7 +3149,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>13</v>
@@ -3183,13 +3195,13 @@
         <v>42</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="56">
@@ -3231,7 +3243,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>13</v>
@@ -3277,13 +3289,13 @@
         <v>44</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="56">
@@ -3323,7 +3335,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>13</v>
@@ -3369,7 +3381,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="123" t="s">
         <v>13</v>
@@ -3411,7 +3423,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>13</v>
@@ -3459,13 +3471,13 @@
         <v>44</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="13">
@@ -3505,7 +3517,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>13</v>
@@ -3553,7 +3565,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>13</v>
@@ -3601,13 +3613,13 @@
         <v>49</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="13">
@@ -3647,7 +3659,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>13</v>
@@ -3695,7 +3707,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>13</v>
@@ -3741,13 +3753,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="21">
@@ -3787,7 +3799,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>13</v>
@@ -3835,7 +3847,7 @@
         <v>52</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>13</v>
@@ -3881,7 +3893,7 @@
         <v>83</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>13</v>
@@ -3929,7 +3941,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>13</v>
@@ -3975,7 +3987,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>13</v>
@@ -4021,7 +4033,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>13</v>
@@ -4067,7 +4079,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>13</v>
@@ -4107,7 +4119,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" s="133" t="s">
         <v>13</v>
@@ -4147,13 +4159,15 @@
         <v>58</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="33"/>
-      <c r="F54" s="35"/>
+      <c r="F54" s="35" t="s">
+        <v>14</v>
+      </c>
       <c r="G54" s="36">
         <v>25</v>
       </c>
@@ -4187,7 +4201,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>13</v>
@@ -4235,7 +4249,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>13</v>
@@ -4281,7 +4295,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>13</v>
@@ -4327,7 +4341,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>13</v>
@@ -4373,7 +4387,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>13</v>
@@ -4421,7 +4435,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="133" t="s">
         <v>13</v>
@@ -4463,7 +4477,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>13</v>
@@ -4509,7 +4523,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>13</v>
@@ -4557,7 +4571,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>13</v>
@@ -4603,7 +4617,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>13</v>
@@ -4651,7 +4665,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>13</v>
@@ -4697,7 +4711,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" s="123" t="s">
         <v>13</v>
@@ -4739,7 +4753,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>13</v>
@@ -4785,7 +4799,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>13</v>
@@ -4833,7 +4847,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>13</v>
@@ -4881,7 +4895,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>13</v>
@@ -4927,7 +4941,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>13</v>
@@ -4973,7 +4987,7 @@
         <v>67</v>
       </c>
       <c r="C72" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D72" s="133" t="s">
         <v>13</v>
@@ -5015,7 +5029,7 @@
         <v>69</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>13</v>
@@ -5061,7 +5075,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>13</v>
@@ -5107,7 +5121,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>13</v>
@@ -5153,7 +5167,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>13</v>
@@ -5199,7 +5213,7 @@
         <v>72</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>13</v>
@@ -5247,7 +5261,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" s="133" t="s">
         <v>13</v>
@@ -5255,7 +5269,9 @@
       <c r="E78" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="134"/>
+      <c r="F78" s="134" t="s">
+        <v>14</v>
+      </c>
       <c r="G78" s="116">
         <v>8</v>
       </c>
@@ -5289,7 +5305,7 @@
         <v>75</v>
       </c>
       <c r="C79" s="114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" s="133" t="s">
         <v>13</v>
@@ -5331,13 +5347,15 @@
         <v>76</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="18"/>
-      <c r="F80" s="20"/>
+      <c r="F80" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="G80" s="21">
         <v>8</v>
       </c>
@@ -5369,7 +5387,7 @@
         <v>77</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>13</v>
@@ -5409,7 +5427,7 @@
         <v>56</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>13</v>
@@ -5444,10 +5462,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D83" s="65" t="s">
         <v>13</v>
@@ -5490,10 +5508,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="65" t="s">
         <v>13</v>
@@ -5539,7 +5557,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D85" s="65" t="s">
         <v>13</v>
@@ -5547,7 +5565,9 @@
       <c r="E85" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="16"/>
+      <c r="F85" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="G85" s="66">
         <v>23</v>
       </c>
@@ -5584,10 +5604,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86" s="65" t="s">
         <v>13</v>
@@ -5635,7 +5655,7 @@
         <v>32</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D87" s="65" t="s">
         <v>13</v>
@@ -5681,7 +5701,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D88" s="65" t="s">
         <v>13</v>
@@ -5689,7 +5709,9 @@
       <c r="E88" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F88" s="16"/>
+      <c r="F88" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="G88" s="66">
         <v>23</v>
       </c>
@@ -5724,10 +5746,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" s="99" t="s">
         <v>13</v>
@@ -5773,7 +5795,7 @@
         <v>23</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="99" t="s">
         <v>13</v>
@@ -5781,7 +5803,9 @@
       <c r="E90" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F90" s="24"/>
+      <c r="F90" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="G90" s="100">
         <v>23</v>
       </c>
@@ -5821,7 +5845,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="99" t="s">
         <v>13</v>
@@ -5829,7 +5853,9 @@
       <c r="E91" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F91" s="24"/>
+      <c r="F91" s="24" t="s">
+        <v>14</v>
+      </c>
       <c r="G91" s="100">
         <v>23</v>
       </c>
@@ -5864,16 +5890,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="99" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F92" s="24"/>
       <c r="G92" s="100">
@@ -5915,7 +5941,7 @@
         <v>64</v>
       </c>
       <c r="C93" s="121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="136" t="s">
         <v>13</v>
